--- a/src/main/resources/words.xlsx
+++ b/src/main/resources/words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="182">
   <si>
     <t xml:space="preserve">ferry</t>
   </si>
@@ -323,253 +323,253 @@
     <t xml:space="preserve">палящая</t>
   </si>
   <si>
+    <t xml:space="preserve">chilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прохладная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мокрый снег или доджь со снегом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">град</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">морось</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downpour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ливень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">типа снегопад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avalanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лавина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">извержение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landslide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оползень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowdrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сугроб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">слякоть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">блики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">урожай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ячмень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рожь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">овес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хмель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рапс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">дрожь(не по желанию)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shaking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">тоже дрожь(может быть по желанию или нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vomiting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">рвать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отрыжка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">судорога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">головокружение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">усталость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heartburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изжога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiccups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">икота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflammation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">воспаление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaundice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">желтуха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тошнота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыпь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">язва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">волдырь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">band-aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пластырь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">марля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tweezer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пинцет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stretcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">носилки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crutches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">костыли</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сделал вместе с климатом и погодой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">прохладная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мокрый снег или доджь со снегом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">град</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">морось</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downpour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ливень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flurry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">типа снегопад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avalanche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лавина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">извержение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landslide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оползень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowdrift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сугроб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">слякоть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">блики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">урожай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ячмень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рожь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">овес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хмель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рапс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shivering </t>
-  </si>
-  <si>
-    <t xml:space="preserve">дрожь(не по желанию)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shaking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">тоже дрожь(может быть по желанию или нет)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vomiting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">рвать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отрыжка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">судорога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dizziness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">головокружение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatigue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">усталость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heartburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">изжога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiccups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">икота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inflammation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">воспаление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaundice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">желтуха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nausea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тошнота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сыпь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulcer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">язва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">волдырь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">band-aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пластырь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">марля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tweezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пинцет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stretcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">носилки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crutches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">костыли</t>
   </si>
 </sst>
 </file>
@@ -742,15 +742,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,27 +790,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,16 +1055,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048527" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.91"/>
   </cols>
@@ -1543,66 +1543,415 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
+      <c r="A44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
+      <c r="A45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
+      <c r="A46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>7</v>
+      <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
+      <c r="A48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A44:C44"/>
+  <mergeCells count="5">
     <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:F48"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1622,8 +1971,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A218" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1634,389 +1983,289 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="0"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="0"/>
+      <c r="C2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="0"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="0"/>
+      <c r="C4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="0"/>
+      <c r="C5" s="12"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="0"/>
+      <c r="C6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="I7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="A7" s="0"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="I7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="0"/>
+      <c r="C8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="0"/>
+      <c r="C9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="0"/>
+      <c r="C10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="0"/>
+      <c r="C11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="0"/>
+      <c r="C12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="0"/>
+      <c r="C13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="0"/>
+      <c r="C14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="0"/>
+      <c r="C15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="0"/>
+      <c r="C16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="0"/>
+      <c r="C17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="0"/>
+      <c r="C18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="0"/>
+      <c r="C19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="0"/>
+      <c r="C20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2079,349 +2328,349 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -2511,8 +2760,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2525,366 +2774,366 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>163</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>169</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
@@ -2906,7 +3155,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
